--- a/单词词组汇总_FYJ_2022SEP06.xlsx
+++ b/单词词组汇总_FYJ_2022SEP06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chengdujin/Downloads/vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A86928-7688-054F-BDCB-DE7DBDC03AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE50F6-C1BE-C140-B435-7A8DF5E514E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="560" windowWidth="28100" windowHeight="17440" xr2:uid="{011AD137-987C-1E48-B4B1-568F4EBF3CE7}"/>
+    <workbookView xWindow="320" yWindow="140" windowWidth="28100" windowHeight="17440" xr2:uid="{011AD137-987C-1E48-B4B1-568F4EBF3CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8732,9 +8732,6 @@
     <t>v.写，写字 动词变形：wrote/written/writing e.g.Please write to me soon.请尽快给我写信 Write down the word Sea.写下Sea这个单词</t>
   </si>
   <si>
-    <t>adj.错误的 e.g.There is something wrong with the bike.这辆自行陈有点什么问题</t>
-  </si>
-  <si>
     <t>n.游艇</t>
   </si>
   <si>
@@ -8742,6 +8739,9 @@
   </si>
   <si>
     <t>n.酸奶</t>
+  </si>
+  <si>
+    <t>adj.错误的 e.g.There is something wrong with the bike.这辆自行车有点什么问题</t>
   </si>
 </sst>
 </file>
@@ -9205,8 +9205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3631D8-4E67-3649-874F-AFC3FD5DF5D2}">
   <dimension ref="A1:B1476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1460" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B1469" sqref="B1469"/>
+    <sheetView tabSelected="1" topLeftCell="A1457" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C1466" sqref="C1466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20836,7 +20836,7 @@
         <v>639</v>
       </c>
       <c r="B1464" s="5" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1465" spans="1:2" s="3" customFormat="1" ht="17">
@@ -20844,7 +20844,7 @@
         <v>1735</v>
       </c>
       <c r="B1465" s="5" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1466" spans="1:2" ht="34">
@@ -20852,7 +20852,7 @@
         <v>422</v>
       </c>
       <c r="B1466" s="4" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1467" spans="1:2" ht="17">
@@ -20884,7 +20884,7 @@
         <v>1762</v>
       </c>
       <c r="B1470" s="5" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1471" spans="1:2" ht="34">
